--- a/src/test/resources/testData/ContactEdit.xlsx
+++ b/src/test/resources/testData/ContactEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>9872203331</t>
+  </si>
+  <si>
+    <t>6798827373</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>

--- a/src/test/resources/testData/ContactEdit.xlsx
+++ b/src/test/resources/testData/ContactEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>6798827373</t>
+  </si>
+  <si>
+    <t>3529005360</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
